--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Slovakia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="77">
   <si>
     <t>-</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>2.118.000</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -841,6 +844,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,8 +859,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -863,6 +869,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1031,15 +1046,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1071,9 +1077,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="23"/>
-    <tableColumn id="2" name="Link" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="21"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1344,11 +1350,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1363,16 +1369,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1382,8 +1388,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +1654,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F13">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1693,16 +1699,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1712,8 +1718,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1829,7 +1835,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1979,7 +1985,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 F8:F13">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1996,7 +2002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2011,7 +2017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2054,16 +2060,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2073,8 +2079,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2146,7 +2152,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2168,7 +2174,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2190,7 +2196,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2212,7 +2218,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2234,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2256,7 +2262,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2340,7 +2346,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F11:F13">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2357,7 +2363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F10">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2385,7 +2391,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4:F12"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2400,16 +2406,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2419,8 +2425,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2445,7 +2451,9 @@
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>64</v>
       </c>
@@ -2468,8 +2476,10 @@
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2491,8 +2501,10 @@
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2513,8 +2525,10 @@
       <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2535,8 +2549,10 @@
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2557,8 +2573,10 @@
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2579,8 +2597,10 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2601,8 +2621,10 @@
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2623,8 +2645,10 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2645,8 +2669,10 @@
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2667,7 +2693,9 @@
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>66</v>
       </c>
@@ -2690,7 +2718,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F3">
+  <conditionalFormatting sqref="F3 F13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2703,7 +2731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F12">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2731,7 +2759,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2746,16 +2774,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2765,8 +2793,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2791,7 +2819,9 @@
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>67</v>
       </c>
@@ -2814,8 +2844,10 @@
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2837,8 +2869,10 @@
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2859,8 +2893,10 @@
       <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2881,8 +2917,10 @@
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2903,8 +2941,10 @@
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2925,8 +2965,10 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2947,8 +2989,10 @@
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2969,8 +3013,10 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2991,8 +3037,10 @@
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3013,8 +3061,10 @@
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -3032,7 +3082,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3049,7 +3099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3077,7 +3127,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3092,16 +3142,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -3111,8 +3161,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3137,7 +3187,9 @@
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>69</v>
       </c>
@@ -3160,7 +3212,9 @@
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>57</v>
       </c>
@@ -3183,7 +3237,9 @@
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>58</v>
       </c>
@@ -3205,7 +3261,9 @@
       <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>48</v>
       </c>
@@ -3227,7 +3285,9 @@
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>49</v>
       </c>
@@ -3249,7 +3309,9 @@
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>59</v>
       </c>
@@ -3271,7 +3333,9 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>59</v>
       </c>
@@ -3293,7 +3357,9 @@
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>60</v>
       </c>
@@ -3315,7 +3381,9 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>65</v>
       </c>
@@ -3337,7 +3405,9 @@
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" s="12" t="s">
         <v>60</v>
       </c>
@@ -3359,7 +3429,9 @@
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>68</v>
       </c>
@@ -3378,7 +3450,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3395,7 +3467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3423,7 +3495,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3438,16 +3510,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -3457,8 +3529,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3483,7 +3555,9 @@
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>70</v>
       </c>
@@ -3506,7 +3580,9 @@
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>57</v>
       </c>
@@ -3530,7 +3606,9 @@
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>58</v>
       </c>
@@ -3552,7 +3630,9 @@
       <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>48</v>
       </c>
@@ -3574,7 +3654,9 @@
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>49</v>
       </c>
@@ -3596,7 +3678,9 @@
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>59</v>
       </c>
@@ -3618,7 +3702,9 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>59</v>
       </c>
@@ -3640,7 +3726,9 @@
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>60</v>
       </c>
@@ -3662,7 +3750,9 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>65</v>
       </c>
@@ -3684,7 +3774,9 @@
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" s="12" t="s">
         <v>60</v>
       </c>
@@ -3706,7 +3798,9 @@
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>68</v>
       </c>
@@ -3725,7 +3819,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3742,7 +3836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3766,11 +3860,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3785,16 +3879,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -3804,8 +3898,8 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3830,7 +3924,9 @@
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>71</v>
       </c>
@@ -3853,8 +3949,10 @@
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -3877,7 +3975,9 @@
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>72</v>
       </c>
@@ -3899,8 +3999,10 @@
       <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -3921,8 +4023,10 @@
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3943,8 +4047,10 @@
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3965,7 +4071,9 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>73</v>
       </c>
@@ -3987,7 +4095,9 @@
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>74</v>
       </c>
@@ -4009,7 +4119,9 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>75</v>
       </c>
@@ -4031,8 +4143,10 @@
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -4053,8 +4167,10 @@
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -4072,11 +4188,11 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F5 F9:F11">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F9:F11">
+  <conditionalFormatting sqref="F5 F3 F9:F11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4089,7 +4205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -4104,7 +4220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4119,7 +4235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -4134,7 +4250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4149,7 +4265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4164,7 +4280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Slovakia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A3434-D1D1-44BE-AD9F-95D6E5A728F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +75,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,12 +159,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +201,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -242,12 +243,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,12 +327,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="89">
   <si>
     <t>-</t>
   </si>
@@ -600,13 +601,49 @@
   </si>
   <si>
     <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>56.028.100</t>
+  </si>
+  <si>
+    <t>25.028.100</t>
+  </si>
+  <si>
+    <t>16.028.100</t>
+  </si>
+  <si>
+    <t>12.028.100</t>
+  </si>
+  <si>
+    <t>28.100</t>
+  </si>
+  <si>
+    <t>20.100</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>С нарастающим итогом</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>3.028.100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -662,6 +699,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -847,6 +890,9 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,16 +905,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1070,16 +1201,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="12" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1347,38 +1478,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1387,9 +1518,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1535,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -1426,7 +1557,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -1448,7 +1579,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -1471,7 +1602,7 @@
       </c>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -1493,7 +1624,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -1515,7 +1646,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -1537,7 +1668,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -1559,7 +1690,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -1581,7 +1712,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -1603,7 +1734,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -1625,7 +1756,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -1644,6 +1775,28 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" ref="G14" si="1">IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1654,11 +1807,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F13">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1677,38 +1847,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1717,9 +1887,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1904,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -1752,12 +1922,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G13" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G14" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -1780,7 +1950,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -1802,7 +1972,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -1824,7 +1994,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -1846,7 +2016,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -1868,7 +2038,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -1890,7 +2060,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -1912,7 +2082,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -1934,7 +2104,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -1956,7 +2126,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -1974,6 +2144,28 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1985,11 +2177,26 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 F8:F13">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5 F8:F13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2001,9 +2208,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2016,10 +2223,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2038,38 +2247,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2078,9 +2287,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2095,7 +2304,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -2113,12 +2322,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G13" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G14" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -2141,7 +2350,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -2163,7 +2372,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -2185,7 +2394,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -2207,7 +2416,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -2229,7 +2438,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -2251,7 +2460,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -2273,7 +2482,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -2295,7 +2504,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -2317,7 +2526,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -2335,6 +2544,28 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2346,11 +2577,26 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F11:F13">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F13 F3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F10">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2362,10 +2608,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F10">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2384,38 +2632,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D13"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2424,9 +2672,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2441,7 +2689,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -2451,7 +2699,7 @@
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -2461,12 +2709,12 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G13" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G14" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -2476,7 +2724,7 @@
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="23" t="s">
@@ -2491,7 +2739,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -2501,7 +2749,7 @@
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="23" t="s">
@@ -2515,7 +2763,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -2525,7 +2773,7 @@
       <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="23" t="s">
@@ -2539,7 +2787,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -2549,7 +2797,7 @@
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -2563,7 +2811,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -2573,7 +2821,7 @@
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="23" t="s">
@@ -2587,7 +2835,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -2597,7 +2845,7 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="23" t="s">
@@ -2611,7 +2859,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -2621,7 +2869,7 @@
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="23" t="s">
@@ -2635,7 +2883,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -2645,7 +2893,7 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="23" t="s">
@@ -2659,7 +2907,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -2669,7 +2917,7 @@
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="23" t="s">
@@ -2683,7 +2931,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -2693,7 +2941,7 @@
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -2703,6 +2951,30 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2714,11 +2986,26 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F13">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F13">
+  <conditionalFormatting sqref="F13 F3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F12">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2730,10 +3017,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F12">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2752,38 +3041,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D13"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2792,9 +3081,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2809,7 +3098,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -2819,7 +3108,7 @@
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -2829,12 +3118,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G13" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G14" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -2844,7 +3133,7 @@
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="23" t="s">
@@ -2859,7 +3148,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -2869,7 +3158,7 @@
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="23" t="s">
@@ -2883,7 +3172,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -2893,7 +3182,7 @@
       <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="23" t="s">
@@ -2907,7 +3196,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -2917,7 +3206,7 @@
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -2931,7 +3220,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -2941,7 +3230,7 @@
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="23" t="s">
@@ -2955,7 +3244,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -2965,7 +3254,7 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="23" t="s">
@@ -2979,7 +3268,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -2989,7 +3278,7 @@
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="23" t="s">
@@ -3003,7 +3292,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -3013,7 +3302,7 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="23" t="s">
@@ -3027,7 +3316,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -3037,7 +3326,7 @@
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="23" t="s">
@@ -3051,7 +3340,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -3061,16 +3350,40 @@
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3082,11 +3395,434 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F13">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="A14:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G14" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F13">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3098,9 +3834,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -3119,50 +3855,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D13"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3177,45 +3913,45 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G13" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G14" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -3225,22 +3961,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="H4" s="13"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -3251,20 +3988,20 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -3275,20 +4012,20 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3299,20 +4036,20 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3323,20 +4060,20 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3347,20 +4084,20 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -3371,20 +4108,20 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -3395,20 +4132,20 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3419,26 +4156,50 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>68</v>
+      <c r="D13" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3449,12 +4210,28 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F13">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3466,9 +4243,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -3487,50 +4264,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D13"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3545,7 +4322,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -3555,11 +4332,11 @@
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3570,7 +4347,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -3580,10 +4357,10 @@
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -3596,7 +4373,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -3606,13 +4383,13 @@
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -3620,7 +4397,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -3630,10 +4407,10 @@
       <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -3644,7 +4421,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -3654,10 +4431,10 @@
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3668,7 +4445,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -3678,10 +4455,10 @@
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3692,7 +4469,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -3702,13 +4479,13 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -3716,7 +4493,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -3726,13 +4503,13 @@
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="str">
@@ -3740,7 +4517,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -3750,13 +4527,13 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="str">
@@ -3764,7 +4541,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -3774,10 +4551,10 @@
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3788,7 +4565,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -3798,10 +4575,10 @@
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -3809,6 +4586,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" ref="G14" si="1">IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3818,13 +4619,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F5 F9:F11">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="F3 F5 F9:F11">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3835,10 +4636,102 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3856,452 +4749,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G13" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3 F5 F9:F11">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F3 F9:F11">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4311,14 +4760,14 @@
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -4329,7 +4778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -4340,7 +4789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -4351,7 +4800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -4362,7 +4811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -4373,7 +4822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -4384,7 +4833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -4397,12 +4846,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Slovakia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A3434-D1D1-44BE-AD9F-95D6E5A728F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C824E3-5F6E-4BD0-BED8-2AFB101A3D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="99">
   <si>
     <t>-</t>
   </si>
@@ -621,29 +630,62 @@
     <t>20.100</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Среднее</t>
-  </si>
-  <si>
-    <t>С нарастающим итогом</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
     <t>3.028.100</t>
+  </si>
+  <si>
+    <t>14.669.400</t>
+  </si>
+  <si>
+    <t>7.335.400</t>
+  </si>
+  <si>
+    <t>6.319.400</t>
+  </si>
+  <si>
+    <t>4.019.400</t>
+  </si>
+  <si>
+    <t>19.400</t>
+  </si>
+  <si>
+    <t>1.444.400</t>
+  </si>
+  <si>
+    <t>13.800</t>
+  </si>
+  <si>
+    <t>10.513.800</t>
+  </si>
+  <si>
+    <t>2.113.800</t>
+  </si>
+  <si>
+    <t>3.013.800</t>
+  </si>
+  <si>
+    <t>15.300</t>
+  </si>
+  <si>
+    <t>3.065.300</t>
+  </si>
+  <si>
+    <t>3.015.300</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Rev: New reverse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -705,6 +747,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -829,7 +875,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,13 +951,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -919,95 +966,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1177,6 +1135,143 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1208,9 +1303,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="12" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="39" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1479,27 +1574,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:G14"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -1518,7 +1613,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -1535,7 +1630,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -1557,7 +1652,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -1579,7 +1674,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -1602,7 +1697,7 @@
       </c>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -1624,7 +1719,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -1646,7 +1741,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -1668,7 +1763,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -1690,7 +1785,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -1712,7 +1807,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -1734,7 +1829,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -1756,7 +1851,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -1778,9 +1873,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>31</v>
@@ -1788,15 +1883,105 @@
       <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="E14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="1">
+        <v>97</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ref="G14" si="1">IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ref="G15" si="2">IF(OR(AND(F15&gt;1,F15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" ref="G16:G18" si="3">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1806,12 +1991,557 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F13">
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F13 F16">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F13">
+  <conditionalFormatting sqref="F3:F13 F16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G14" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ref="G15:G17" si="1">IF(OR(AND(F15&gt;1,F15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F5 F8:F13">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5 F8:F13">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1823,12 +2553,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1846,29 +2574,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I14"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="A14:G14"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="K16:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -1883,11 +2611,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -1904,7 +2632,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -1916,7 +2644,7 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1927,7 +2655,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -1938,10 +2666,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="str">
@@ -1950,7 +2678,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -1961,10 +2689,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -1972,7 +2700,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -1994,7 +2722,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -2016,7 +2744,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -2027,10 +2755,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -2038,7 +2766,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -2049,10 +2777,10 @@
         <v>30</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -2060,7 +2788,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -2071,10 +2799,10 @@
         <v>30</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="str">
@@ -2082,7 +2810,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -2094,7 +2822,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2104,7 +2832,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -2116,7 +2844,7 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2126,7 +2854,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -2138,7 +2866,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2148,7 +2876,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2020</v>
       </c>
@@ -2160,13 +2888,79 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ref="G15:G17" si="1">IF(OR(AND(F15&gt;1,F15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2176,27 +2970,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F5 F8:F13">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F3 F11:F13 F15 F17">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F5 F8:F13">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F11:F13 F3 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2208,9 +2988,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+  <conditionalFormatting sqref="F4:F10">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2223,12 +3003,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F14 F16">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F14 F16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2246,29 +3026,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I14"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="A14:G14"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20:N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2283,11 +3063,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -2304,22 +3084,24 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G14" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -2327,17 +3109,19 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E4" s="23" t="s">
         <v>57</v>
       </c>
@@ -2350,17 +3134,19 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E5" s="23" t="s">
         <v>58</v>
       </c>
@@ -2372,17 +3158,19 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E6" s="23" t="s">
         <v>48</v>
       </c>
@@ -2394,17 +3182,19 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="23" t="s">
         <v>49</v>
       </c>
@@ -2416,17 +3206,19 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
@@ -2438,17 +3230,19 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E9" s="23" t="s">
         <v>59</v>
       </c>
@@ -2460,17 +3254,19 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="23" t="s">
         <v>60</v>
       </c>
@@ -2482,21 +3278,23 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="str">
@@ -2504,21 +3302,23 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="D12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="str">
@@ -2526,19 +3326,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E13" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2548,25 +3350,99 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E14" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ref="G15:G17" si="1">IF(OR(AND(F15&gt;1,F15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2576,12 +3452,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F11:F13">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F3 F13 F15 F17">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F13 F3">
+  <conditionalFormatting sqref="F3 F13 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2593,8 +3470,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F10">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F4:F12">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2608,12 +3485,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F14 F16">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F14 F16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2631,29 +3508,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I14"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="A14:G14"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="J19:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2668,11 +3545,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -2689,7 +3566,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -2703,10 +3580,10 @@
         <v>76</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G14" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -2714,7 +3591,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -2739,7 +3616,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -2763,7 +3640,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -2787,7 +3664,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -2811,7 +3688,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -2835,7 +3712,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -2859,7 +3736,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -2883,7 +3760,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -2907,7 +3784,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -2931,7 +3808,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -2944,10 +3821,10 @@
       <c r="D13" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="str">
@@ -2955,7 +3832,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2020</v>
       </c>
@@ -2968,14 +3845,86 @@
       <c r="D14" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ref="G15:G17" si="1">IF(OR(AND(F15&gt;1,F15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2985,417 +3934,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F13">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F12">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="A14:G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G14" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3412,7 +3953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3426,8 +3967,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F14:F17">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3449,27 +3990,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="A14:G14"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="J18:P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -3488,7 +4029,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -3505,7 +4046,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -3530,7 +4071,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -3555,7 +4096,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -3579,7 +4120,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -3603,7 +4144,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -3627,7 +4168,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -3651,7 +4192,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -3675,7 +4216,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -3699,7 +4240,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -3723,7 +4264,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -3747,7 +4288,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -3771,7 +4312,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2020</v>
       </c>
@@ -3792,6 +4333,78 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ref="G15:G17" si="1">IF(OR(AND(F15&gt;1,F15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3803,7 +4416,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3820,7 +4433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3834,8 +4447,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F14:F17">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3857,27 +4470,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="Q20" sqref="J17:Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -3896,7 +4509,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -3913,7 +4526,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -3938,7 +4551,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -3964,7 +4577,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -3988,7 +4601,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -4012,7 +4625,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -4036,7 +4649,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -4060,7 +4673,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -4084,7 +4697,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -4108,7 +4721,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -4132,7 +4745,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -4156,7 +4769,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -4180,7 +4793,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2020</v>
       </c>
@@ -4203,6 +4816,79 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ref="G15:G17" si="1">IF(OR(AND(F15&gt;1,F15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4212,11 +4898,26 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F13">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4228,9 +4929,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+  <conditionalFormatting sqref="F16:F17 F14">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -4243,10 +4944,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4266,27 +4969,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -4305,7 +5008,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
@@ -4322,7 +5025,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2009</v>
       </c>
@@ -4347,7 +5050,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2010</v>
       </c>
@@ -4373,7 +5076,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2011</v>
       </c>
@@ -4397,7 +5100,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2012</v>
       </c>
@@ -4421,7 +5124,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2013</v>
       </c>
@@ -4445,7 +5148,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2014</v>
       </c>
@@ -4469,7 +5172,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2015</v>
       </c>
@@ -4493,7 +5196,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2016</v>
       </c>
@@ -4517,7 +5220,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2017</v>
       </c>
@@ -4541,7 +5244,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2018</v>
       </c>
@@ -4565,7 +5268,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2019</v>
       </c>
@@ -4589,7 +5292,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2020</v>
       </c>
@@ -4603,7 +5306,7 @@
         <v>76</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4612,6 +5315,81 @@
         <f t="shared" ref="G14" si="1">IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ref="G15:G17" si="2">IF(OR(AND(F15&gt;1,F15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4619,12 +5397,43 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F3 F5 F9:F11">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F9:F11">
+  <conditionalFormatting sqref="F5 F3 F9:F11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4636,9 +5445,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -4651,9 +5460,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -4666,9 +5475,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -4681,9 +5490,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -4696,25 +5505,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="F14 F16">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F16 F14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4726,12 +5522,25 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4760,14 +5569,14 @@
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -4778,7 +5587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -4789,7 +5598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -4800,7 +5609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -4811,7 +5620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -4822,7 +5631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -4833,7 +5642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>6</v>
       </c>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C824E3-5F6E-4BD0-BED8-2AFB101A3D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1E05A5-4D32-4E99-8368-3D2DB70752A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -386,9 +386,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>Rev: New reverse</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -939,6 +939,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,21 +952,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="40">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1263,15 +1264,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1303,9 +1295,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="39" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1576,11 +1568,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1595,38 +1587,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1635,14 +1627,14 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1657,14 +1649,14 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1679,14 +1671,14 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1702,14 +1694,14 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1724,14 +1716,14 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1746,14 +1738,14 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1768,14 +1760,14 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1790,14 +1782,14 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1812,14 +1804,14 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1834,14 +1826,14 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1856,14 +1848,14 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1878,16 +1870,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -1902,14 +1894,14 @@
         <v>2020</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1924,14 +1916,14 @@
         <v>2021</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1946,14 +1938,14 @@
         <v>2022</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1968,14 +1960,14 @@
         <v>2023</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -1993,7 +1985,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F3:F13 F16">
-    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2010,7 +2002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2027,7 +2019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -2042,7 +2034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2057,7 +2049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2085,7 +2077,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16:F17"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2100,38 +2092,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2140,14 +2132,14 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2163,14 +2155,14 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2186,14 +2178,14 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2208,14 +2200,14 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -2230,14 +2222,14 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -2252,14 +2244,14 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2274,14 +2266,14 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2296,14 +2288,14 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2318,14 +2310,14 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2340,14 +2332,14 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2362,14 +2354,14 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2384,14 +2376,14 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2406,14 +2398,14 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2428,14 +2420,14 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2450,14 +2442,14 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -2475,7 +2467,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5 F8:F13">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2492,7 +2484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -2507,7 +2499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -2522,7 +2514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2539,7 +2531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2554,7 +2546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2582,7 +2574,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="K16:N19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2597,38 +2589,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2637,14 +2629,14 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2660,14 +2652,14 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2683,14 +2675,14 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -2705,14 +2697,14 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -2727,14 +2719,14 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -2749,14 +2741,14 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -2771,14 +2763,14 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -2793,14 +2785,14 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -2815,14 +2807,14 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2837,14 +2829,14 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2859,14 +2851,14 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2881,14 +2873,14 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2903,14 +2895,14 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2925,14 +2917,14 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2947,14 +2939,14 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2972,7 +2964,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F3 F11:F13 F15 F17">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2989,7 +2981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F10">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3004,11 +2996,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14 F16">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F16">
+  <conditionalFormatting sqref="F16 F14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3034,7 +3026,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20:N23"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3049,38 +3041,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3089,16 +3081,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -3114,16 +3106,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -3139,16 +3131,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -3163,16 +3155,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -3187,16 +3179,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -3211,16 +3203,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3235,16 +3227,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -3259,16 +3251,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -3283,16 +3275,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -3307,16 +3299,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -3331,16 +3323,16 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3355,16 +3347,16 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3379,16 +3371,16 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3403,16 +3395,16 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3427,16 +3419,16 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3454,11 +3446,11 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F3 F13 F15 F17">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F13 F15 F17">
+  <conditionalFormatting sqref="F13 F3 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3471,7 +3463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F12">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3486,11 +3478,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14 F16">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F16">
+  <conditionalFormatting sqref="F16 F14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3516,7 +3508,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="J19:O22"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3531,38 +3523,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3571,16 +3563,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3596,16 +3588,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -3621,16 +3613,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -3645,16 +3637,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -3669,16 +3661,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -3693,16 +3685,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3717,16 +3709,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -3741,16 +3733,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -3765,16 +3757,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -3789,16 +3781,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -3813,16 +3805,16 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3837,16 +3829,16 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3861,16 +3853,16 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3885,16 +3877,16 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3909,16 +3901,16 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -3936,7 +3928,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3953,7 +3945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3968,7 +3960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F17">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3996,7 +3988,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="J18:P21"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4011,38 +4003,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4051,16 +4043,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4076,16 +4068,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -4101,16 +4093,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -4125,16 +4117,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -4149,16 +4141,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -4173,16 +4165,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4197,16 +4189,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -4221,16 +4213,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -4245,16 +4237,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -4269,16 +4261,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4293,16 +4285,16 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4317,16 +4309,16 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4341,16 +4333,16 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4365,16 +4357,16 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -4389,16 +4381,16 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -4416,7 +4408,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4433,7 +4425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4448,7 +4440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F17">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4476,7 +4468,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q20" sqref="J17:Q20"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4491,38 +4483,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4531,16 +4523,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4556,16 +4548,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -4582,16 +4574,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -4606,16 +4598,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -4630,16 +4622,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -4654,16 +4646,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4678,16 +4670,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -4702,16 +4694,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -4726,16 +4718,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -4750,16 +4742,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4774,16 +4766,16 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4798,16 +4790,16 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4822,16 +4814,16 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4846,16 +4838,16 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -4870,16 +4862,16 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -4888,7 +4880,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R17" s="29"/>
+      <c r="R17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4898,7 +4890,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4915,7 +4907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4930,7 +4922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F17 F14">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4945,7 +4937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4971,11 +4963,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4990,38 +4982,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5030,16 +5022,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -5055,16 +5047,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -5081,16 +5073,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5105,16 +5097,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -5129,16 +5121,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -5153,16 +5145,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -5177,16 +5169,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5201,16 +5193,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5225,16 +5217,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5249,16 +5241,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -5273,16 +5265,16 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -5297,16 +5289,16 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5321,16 +5313,16 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -5345,16 +5337,16 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5369,16 +5361,16 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -5389,7 +5381,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R24" s="29"/>
+      <c r="R24" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5399,11 +5391,11 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F3 F5 F9:F11">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F3 F9:F11">
+  <conditionalFormatting sqref="F3 F5 F9:F11">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5416,7 +5408,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5431,7 +5423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -5446,7 +5438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -5461,7 +5453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -5476,7 +5468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -5491,7 +5483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5506,11 +5498,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14 F16">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16 F14">
+  <conditionalFormatting sqref="F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5523,7 +5515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5538,7 +5530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5578,13 +5570,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5592,10 +5584,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5603,10 +5595,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5614,10 +5606,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5625,10 +5617,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5636,10 +5628,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5647,10 +5639,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1E05A5-4D32-4E99-8368-3D2DB70752A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797EE1F-ABC9-455F-836F-CB3906488693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -3000,7 +3000,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16 F14">
+  <conditionalFormatting sqref="F14 F16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3022,7 +3022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3450,7 +3450,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F3 F15 F17">
+  <conditionalFormatting sqref="F3 F13 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3482,7 +3482,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16 F14">
+  <conditionalFormatting sqref="F14 F16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4963,7 +4963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5395,7 +5395,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F9:F11">
+  <conditionalFormatting sqref="F5 F3 F9:F11">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5502,7 +5502,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F16">
+  <conditionalFormatting sqref="F16 F14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Slovakia/#EURO#Slovakia#Regular#[2009-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Slovakia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797EE1F-ABC9-455F-836F-CB3906488693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F00580-FD52-4070-BFDB-EB8D38377EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="100">
   <si>
     <t>-</t>
   </si>
@@ -390,12 +400,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -676,6 +680,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -751,6 +764,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -791,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -869,13 +884,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -943,6 +982,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,6 +992,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1568,57 +1619,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1627,14 +1677,14 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1649,14 +1699,14 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1671,14 +1721,14 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1694,14 +1744,14 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1716,14 +1766,14 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1738,14 +1788,14 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1760,14 +1810,14 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1782,14 +1832,14 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1804,14 +1854,14 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1826,14 +1876,14 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1848,14 +1898,14 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1870,16 +1920,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -1894,14 +1944,14 @@
         <v>2020</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1916,14 +1966,14 @@
         <v>2021</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1938,14 +1988,14 @@
         <v>2022</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -1960,14 +2010,14 @@
         <v>2023</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
@@ -1978,9 +2028,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2071,59 +2121,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2132,14 +2181,14 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2155,14 +2204,14 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2178,14 +2227,14 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2200,14 +2249,14 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -2222,14 +2271,14 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -2244,14 +2293,14 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2266,14 +2315,14 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2288,14 +2337,14 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2310,14 +2359,14 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2332,14 +2381,14 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2354,14 +2403,14 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2376,14 +2425,14 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2398,14 +2447,14 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2420,14 +2469,14 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -2442,14 +2491,14 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -2459,10 +2508,22 @@
         <v/>
       </c>
     </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2574,53 +2635,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2629,14 +2689,14 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2652,14 +2712,14 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -2675,14 +2735,14 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -2697,14 +2757,14 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -2719,14 +2779,14 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -2741,14 +2801,14 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -2763,14 +2823,14 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -2785,14 +2845,14 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -2807,14 +2867,14 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2829,14 +2889,14 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2851,14 +2911,14 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2873,14 +2933,14 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2895,14 +2955,14 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2917,14 +2977,14 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2939,14 +2999,14 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2957,9 +3017,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3000,7 +3060,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F16">
+  <conditionalFormatting sqref="F16 F14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3022,57 +3082,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3081,16 +3140,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -3106,16 +3165,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -3131,16 +3190,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -3155,16 +3214,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -3179,16 +3238,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -3203,16 +3262,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3227,16 +3286,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -3251,16 +3310,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -3275,16 +3334,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -3299,16 +3358,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -3323,16 +3382,16 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3347,16 +3406,16 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3371,16 +3430,16 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3395,16 +3454,16 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3419,16 +3478,16 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3439,9 +3498,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3450,7 +3509,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F13 F15 F17">
+  <conditionalFormatting sqref="F13 F3 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3482,7 +3541,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F16">
+  <conditionalFormatting sqref="F16 F14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3508,53 +3567,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3563,16 +3621,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3588,16 +3646,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -3613,16 +3671,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -3637,16 +3695,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -3661,16 +3719,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -3685,16 +3743,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -3709,16 +3767,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -3733,16 +3791,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -3757,16 +3815,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -3781,16 +3839,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -3805,16 +3863,16 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -3829,16 +3887,16 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -3853,16 +3911,16 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -3877,16 +3935,16 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -3901,16 +3959,16 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -3921,9 +3979,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3988,53 +4046,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4043,16 +4100,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4068,16 +4125,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -4093,16 +4150,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -4117,16 +4174,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -4141,16 +4198,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -4165,16 +4222,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4189,16 +4246,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -4213,16 +4270,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -4237,16 +4294,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -4261,16 +4318,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4285,16 +4342,16 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4309,16 +4366,16 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4333,16 +4390,16 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -4357,16 +4414,16 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -4381,16 +4438,16 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -4401,9 +4458,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4468,53 +4525,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4523,16 +4579,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4548,16 +4604,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -4574,16 +4630,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -4598,16 +4654,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -4622,16 +4678,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -4646,16 +4702,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -4670,16 +4726,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -4694,16 +4750,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -4718,16 +4774,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -4742,16 +4798,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -4766,16 +4822,16 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -4790,16 +4846,16 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -4814,16 +4870,16 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4838,16 +4894,16 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>0</v>
@@ -4862,16 +4918,16 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -4883,9 +4939,9 @@
       <c r="R17" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4967,53 +5023,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5022,16 +5077,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -5047,16 +5102,16 @@
         <v>2010</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
@@ -5073,16 +5128,16 @@
         <v>2011</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5097,16 +5152,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -5121,16 +5176,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -5145,16 +5200,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -5169,16 +5224,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5193,16 +5248,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5217,16 +5272,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5241,16 +5296,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
@@ -5265,16 +5320,16 @@
         <v>2019</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -5289,16 +5344,16 @@
         <v>2020</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5313,16 +5368,16 @@
         <v>2021</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>0</v>
@@ -5337,16 +5392,16 @@
         <v>2022</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5361,16 +5416,16 @@
         <v>2023</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
@@ -5384,9 +5439,9 @@
       <c r="R24" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -5395,7 +5450,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F3 F9:F11">
+  <conditionalFormatting sqref="F3 F5 F9:F11">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5502,7 +5557,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16 F14">
+  <conditionalFormatting sqref="F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5570,13 +5625,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5584,10 +5639,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5595,10 +5650,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5606,10 +5661,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5617,10 +5672,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5628,10 +5683,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5639,10 +5694,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
